--- a/log/c670_log.xlsx
+++ b/log/c670_log.xlsx
@@ -385,250 +385,250 @@
     <t>Toluene Column C670 Feed Blending Factors Calculation_Lower Feed Blending Factor @ Tray 54 for Individual Component to Toluene Column C670_Oxygen_Fraction</t>
   </si>
   <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Hydrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Methane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Ethane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Propane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Butane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Pentane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Hexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Benzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Cyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Heptane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Water_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Methylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Toluene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Octane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Propylcyclopentane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Ethylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_p-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_m-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_o-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Nonane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_i-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Propylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1-Methyl-3-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1-Methyl-4-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1,3,5-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1-Methyl-2-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1,2,4-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_tert-Butylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1,2,3-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Indane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1-Methyl-4-n-propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1,2-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_5-Ethyl-m-xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1,4-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_1,2,3,5-Tetramethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Pentylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_n-Hexylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Nitrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Distillate_Oxygen_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Hydrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Methane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Ethane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Propane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Butane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Pentane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Hexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Benzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Cyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Heptane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Water_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Methylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Toluene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Octane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Propylcyclopentane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Ethylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_p-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_m-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_o-Xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Nonane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_i-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Propylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1-Methyl-3-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1-Methyl-4-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1,3,5-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1-Methyl-2-ethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1,2,4-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_tert-Butylcyclohexane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1,2,3-Trimethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Indane_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1-Methyl-4-n-propylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1,2-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_5-Ethyl-m-xylene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1,4-Diethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_1,2,3,5-Tetramethylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Pentylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_n-Hexylbenzene_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Nitrogen_Fraction</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Split Factors Calculation_Split Factor for Individual Component to Toluene Column C670 Bottoms_Oxygen_Fraction</t>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Hydrogen_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Methane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Ethane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Propane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Butane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Pentane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Hexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Benzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Cyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Heptane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Water_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Methylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Toluene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Octane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Propylcyclopentane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Ethylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_p-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_m-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_o-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Nonane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_i-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Propylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1-Methyl-3-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1-Methyl-4-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1,3,5-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1-Methyl-2-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1,2,4-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_tert-Butylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1,2,3-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Indane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1-Methyl-4-n-propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1,2-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_5-Ethyl-m-xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1,4-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_1,2,3,5-Tetramethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Pentylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_n-Hexylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Nitrogen_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Distillate Production Rate and Composition_Oxygen_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Hydrogen_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Methane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Ethane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Propane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Butane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Pentane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Hexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Benzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Cyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Heptane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Water_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Methylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Toluene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Octane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Propylcyclopentane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Ethylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_p-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_m-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_o-Xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Nonane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_i-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Propylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1-Methyl-3-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1-Methyl-4-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1,3,5-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1-Methyl-2-ethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1,2,4-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_tert-Butylcyclohexane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1,2,3-Trimethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Indane_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1-Methyl-4-n-propylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1,2-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_5-Ethyl-m-xylene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1,4-Diethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_1,2,3,5-Tetramethylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Pentylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_n-Hexylbenzene_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Nitrogen_wt%</t>
+  </si>
+  <si>
+    <t>Toluene Column C670 Operation_Bottoms Production Rate and Composition_Oxygen_wt%</t>
   </si>
   <si>
     <t>Density_Distillate Production Rate and Composition</t>
@@ -653,7 +653,7 @@
     <t>Toluene Column C670 Operation_Column Temp Profile_C670 Btm Temp (Control)_oC</t>
   </si>
   <si>
-    <t>測試001</t>
+    <t>實驗003</t>
   </si>
 </sst>
 </file>
@@ -1659,6 +1659,642 @@
       <c r="A2" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.1891152784228325</v>
+      </c>
+      <c r="J2">
+        <v>0.0001426534508937038</v>
+      </c>
+      <c r="K2">
+        <v>0.002948508365079761</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.01290798000991344</v>
+      </c>
+      <c r="N2">
+        <v>59.22072601318359</v>
+      </c>
+      <c r="O2">
+        <v>0.03327876608818769</v>
+      </c>
+      <c r="P2">
+        <v>0.02041765674948692</v>
+      </c>
+      <c r="Q2">
+        <v>0.0182455712929368</v>
+      </c>
+      <c r="R2">
+        <v>2.371898531913757</v>
+      </c>
+      <c r="S2">
+        <v>6.318757057189941</v>
+      </c>
+      <c r="T2">
+        <v>13.53578948974609</v>
+      </c>
+      <c r="U2">
+        <v>5.558352589607239</v>
+      </c>
+      <c r="V2">
+        <v>0.03374621644616127</v>
+      </c>
+      <c r="W2">
+        <v>0.008778820745646954</v>
+      </c>
+      <c r="X2">
+        <v>0.0499674966558814</v>
+      </c>
+      <c r="Y2">
+        <v>0.0106634353287518</v>
+      </c>
+      <c r="Z2">
+        <v>0.9067328870296478</v>
+      </c>
+      <c r="AA2">
+        <v>0.4752382338047028</v>
+      </c>
+      <c r="AB2">
+        <v>2.497881948947906</v>
+      </c>
+      <c r="AC2">
+        <v>0.2670746445655823</v>
+      </c>
+      <c r="AD2">
+        <v>6.378901720046997</v>
+      </c>
+      <c r="AE2">
+        <v>0.003805113054113463</v>
+      </c>
+      <c r="AF2">
+        <v>1.018238425254822</v>
+      </c>
+      <c r="AG2">
+        <v>0.04117863811552525</v>
+      </c>
+      <c r="AH2">
+        <v>0.007908772793598473</v>
+      </c>
+      <c r="AI2">
+        <v>0.02027369011193514</v>
+      </c>
+      <c r="AJ2">
+        <v>0.7602463662624359</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.8748884499073029</v>
+      </c>
+      <c r="AM2">
+        <v>0.275365523993969</v>
+      </c>
+      <c r="AN2">
+        <v>0.1182434484362602</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AR2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AS2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AT2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AU2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AV2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AW2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AX2">
+        <v>0.007498935330659151</v>
+      </c>
+      <c r="AY2">
+        <v>0.001763016283803154</v>
+      </c>
+      <c r="AZ2">
+        <v>0.01401805272325873</v>
+      </c>
+      <c r="BA2">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="BB2">
+        <v>0.3986526280641556</v>
+      </c>
+      <c r="BC2">
+        <v>0.37135249376297</v>
+      </c>
+      <c r="BD2">
+        <v>0.5507510900497437</v>
+      </c>
+      <c r="BE2">
+        <v>0.4390258342027664</v>
+      </c>
+      <c r="BF2">
+        <v>0.4058538377285004</v>
+      </c>
+      <c r="BG2">
+        <v>0.5257790982723236</v>
+      </c>
+      <c r="BH2">
+        <v>0.06550494953989983</v>
+      </c>
+      <c r="BI2">
+        <v>0.06201773323118687</v>
+      </c>
+      <c r="BJ2">
+        <v>0.03719384572468698</v>
+      </c>
+      <c r="BK2">
+        <v>0.4734487682580948</v>
+      </c>
+      <c r="BL2">
+        <v>1.067552921085735e-05</v>
+      </c>
+      <c r="BM2">
+        <v>0.8496290743350983</v>
+      </c>
+      <c r="BN2">
+        <v>1.718674937478681e-06</v>
+      </c>
+      <c r="BO2">
+        <v>0.001024341712991372</v>
+      </c>
+      <c r="BP2">
+        <v>0.001947460782389498</v>
+      </c>
+      <c r="BQ2">
+        <v>0.0007701181242687483</v>
+      </c>
+      <c r="BR2">
+        <v>0.001683059465676706</v>
+      </c>
+      <c r="BS2">
+        <v>7.339349327040168e-05</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1.573202290661158e-08</v>
+      </c>
+      <c r="BV2">
+        <v>1.949962535885419e-08</v>
+      </c>
+      <c r="BW2">
+        <v>0.6414849460124969</v>
+      </c>
+      <c r="BX2">
+        <v>0.08563967840746045</v>
+      </c>
+      <c r="BY2">
+        <v>2.782630362241356e-09</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>3.059324289126503e-11</v>
+      </c>
+      <c r="CB2">
+        <v>5.537259778302939e-12</v>
+      </c>
+      <c r="CC2">
+        <v>1.399546133061617e-14</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CG2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CH2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CI2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CJ2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CK2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CL2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CM2">
+        <v>0.9925010800361633</v>
+      </c>
+      <c r="CN2">
+        <v>0.9982369840145111</v>
+      </c>
+      <c r="CO2">
+        <v>0.9859819412231445</v>
+      </c>
+      <c r="CP2">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CQ2">
+        <v>0.6013473868370056</v>
+      </c>
+      <c r="CR2">
+        <v>0.6286474913358688</v>
+      </c>
+      <c r="CS2">
+        <v>0.4492488875985146</v>
+      </c>
+      <c r="CT2">
+        <v>0.5609741508960724</v>
+      </c>
+      <c r="CU2">
+        <v>0.5941461622714996</v>
+      </c>
+      <c r="CV2">
+        <v>0.4742209017276764</v>
+      </c>
+      <c r="CW2">
+        <v>0.9344950318336487</v>
+      </c>
+      <c r="CX2">
+        <v>0.9379822909832001</v>
+      </c>
+      <c r="CY2">
+        <v>0.9628061354160309</v>
+      </c>
+      <c r="CZ2">
+        <v>0.5265512317419052</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999893307685852</v>
+      </c>
+      <c r="DB2">
+        <v>0.1503709387034178</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999982714653015</v>
+      </c>
+      <c r="DD2">
+        <v>0.9989756643772125</v>
+      </c>
+      <c r="DE2">
+        <v>0.9980525374412537</v>
+      </c>
+      <c r="DF2">
+        <v>0.999229907989502</v>
+      </c>
+      <c r="DG2">
+        <v>0.9983169436454773</v>
+      </c>
+      <c r="DH2">
+        <v>0.9999265968799591</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0.9999999701976776</v>
+      </c>
+      <c r="DK2">
+        <v>0.9999999701976776</v>
+      </c>
+      <c r="DL2">
+        <v>0.3585150800645351</v>
+      </c>
+      <c r="DM2">
+        <v>0.9143603444099426</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0.3180302463598874</v>
+      </c>
+      <c r="EC2">
+        <v>0.0002398965991017217</v>
+      </c>
+      <c r="ED2">
+        <v>0.004958429850622221</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0.02170685262031247</v>
+      </c>
+      <c r="EG2">
+        <v>99.57794650636905</v>
+      </c>
+      <c r="EH2">
+        <v>0.05589086000603116</v>
+      </c>
+      <c r="EI2">
+        <v>0.00597774726342597</v>
+      </c>
+      <c r="EJ2">
+        <v>0.001178334077489296</v>
+      </c>
+      <c r="EK2">
+        <v>0.009831635734083079</v>
+      </c>
+      <c r="EL2">
+        <v>0.002046663190217261</v>
+      </c>
+      <c r="EM2">
+        <v>0.002179186596634448</v>
+      </c>
+      <c r="EN2">
+        <v>5.601537568626038e-06</v>
+      </c>
+      <c r="EO2">
+        <v>4.772080594922278e-06</v>
+      </c>
+      <c r="EP2">
+        <v>4.80930026010514e-12</v>
+      </c>
+      <c r="EQ2">
+        <v>3.474259641329801e-10</v>
+      </c>
+      <c r="ER2">
+        <v>1.051771503204796e-14</v>
+      </c>
+      <c r="ES2">
+        <v>8.239485763598803e-12</v>
+      </c>
+      <c r="ET2">
+        <v>1.435697956771345e-12</v>
+      </c>
+      <c r="EU2">
+        <v>2.823347399773176e-14</v>
+      </c>
+      <c r="EV2">
+        <v>3.618567743065271e-13</v>
+      </c>
+      <c r="EW2">
+        <v>4.866641466708037e-16</v>
+      </c>
+      <c r="EX2">
+        <v>1.263445756928916e-15</v>
+      </c>
+      <c r="EY2">
+        <v>1.070630803327616e-19</v>
+      </c>
+      <c r="EZ2">
+        <v>7.293863161810519e-21</v>
+      </c>
+      <c r="FA2">
+        <v>5.450971082236829e-20</v>
+      </c>
+      <c r="FB2">
+        <v>5.553227359230658e-21</v>
+      </c>
+      <c r="FC2">
+        <v>1.145570118997164e-22</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>2.524052975691476e-06</v>
+      </c>
+      <c r="FF2">
+        <v>5.33257121894729e-07</v>
+      </c>
+      <c r="FG2">
+        <v>2.100425788012009e-07</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>7.107258684452124e-10</v>
+      </c>
+      <c r="FR2">
+        <v>1.774543316901893e-12</v>
+      </c>
+      <c r="FS2">
+        <v>4.167993726285722e-10</v>
+      </c>
+      <c r="FT2">
+        <v>0</v>
+      </c>
+      <c r="FU2">
+        <v>2.319690500343695e-07</v>
+      </c>
+      <c r="FV2">
+        <v>0.01717511212537173</v>
+      </c>
+      <c r="FW2">
+        <v>0.0001046849537351347</v>
+      </c>
+      <c r="FX2">
+        <v>0.04056812644008005</v>
+      </c>
+      <c r="FY2">
+        <v>0.04220851622517072</v>
+      </c>
+      <c r="FZ2">
+        <v>5.692119628546358</v>
+      </c>
+      <c r="GA2">
+        <v>15.19839434775738</v>
+      </c>
+      <c r="GB2">
+        <v>32.56054857048593</v>
+      </c>
+      <c r="GC2">
+        <v>13.37197420115095</v>
+      </c>
+      <c r="GD2">
+        <v>0.08117798806005297</v>
+      </c>
+      <c r="GE2">
+        <v>0.02111960920162624</v>
+      </c>
+      <c r="GF2">
+        <v>0.1202090841960815</v>
+      </c>
+      <c r="GG2">
+        <v>0.02565351240389819</v>
+      </c>
+      <c r="GH2">
+        <v>2.181368634713731</v>
+      </c>
+      <c r="GI2">
+        <v>1.143302280161404</v>
+      </c>
+      <c r="GJ2">
+        <v>6.009268456669982</v>
+      </c>
+      <c r="GK2">
+        <v>0.6425136455468943</v>
+      </c>
+      <c r="GL2">
+        <v>15.34601461475061</v>
+      </c>
+      <c r="GM2">
+        <v>0.009154133909241875</v>
+      </c>
+      <c r="GN2">
+        <v>2.449622590383163</v>
+      </c>
+      <c r="GO2">
+        <v>0.09906532661420613</v>
+      </c>
+      <c r="GP2">
+        <v>0.01902649518707587</v>
+      </c>
+      <c r="GQ2">
+        <v>0.04877334036593205</v>
+      </c>
+      <c r="GR2">
+        <v>1.828959334928965</v>
+      </c>
+      <c r="GS2">
+        <v>0</v>
+      </c>
+      <c r="GT2">
+        <v>2.104755508180983</v>
+      </c>
+      <c r="GU2">
+        <v>0.6624586418540125</v>
+      </c>
+      <c r="GV2">
+        <v>0.2844633820888056</v>
+      </c>
+      <c r="GW2">
+        <v>0</v>
+      </c>
+      <c r="GX2">
+        <v>0</v>
+      </c>
+      <c r="GY2">
+        <v>0.8709293007850647</v>
+      </c>
+      <c r="GZ2">
+        <v>0.8728210926055908</v>
+      </c>
+      <c r="HA2">
+        <v>217.7536010742188</v>
+      </c>
+      <c r="HB2">
+        <v>25.4040699005127</v>
+      </c>
+      <c r="HC2">
+        <v>25.49666976928711</v>
+      </c>
+      <c r="HD2">
+        <v>181.05419921875</v>
+      </c>
+      <c r="HE2">
+        <v>225.7513122558594</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/log/c670_log.xlsx
+++ b/log/c670_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Toluene Column C670 Operation_Combined Feed to Toluene Column C670 : Detailed weight % Composition_Hydrogen_wt%</t>
   </si>
@@ -654,6 +654,12 @@
   </si>
   <si>
     <t>實驗003</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HE2"/>
+  <dimension ref="A1:HE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2296,6 +2302,1288 @@
         <v>225.7513122558594</v>
       </c>
     </row>
+    <row r="3" spans="1:213">
+      <c r="A3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.1891152784228325</v>
+      </c>
+      <c r="J3">
+        <v>0.0001426534508937038</v>
+      </c>
+      <c r="K3">
+        <v>0.002948508365079761</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.01290798000991344</v>
+      </c>
+      <c r="N3">
+        <v>59.22072601318359</v>
+      </c>
+      <c r="O3">
+        <v>0.03327876608818769</v>
+      </c>
+      <c r="P3">
+        <v>0.02041765674948692</v>
+      </c>
+      <c r="Q3">
+        <v>0.0182455712929368</v>
+      </c>
+      <c r="R3">
+        <v>2.371898531913757</v>
+      </c>
+      <c r="S3">
+        <v>6.318757057189941</v>
+      </c>
+      <c r="T3">
+        <v>13.53578948974609</v>
+      </c>
+      <c r="U3">
+        <v>5.558352589607239</v>
+      </c>
+      <c r="V3">
+        <v>0.03374621644616127</v>
+      </c>
+      <c r="W3">
+        <v>0.008778820745646954</v>
+      </c>
+      <c r="X3">
+        <v>0.0499674966558814</v>
+      </c>
+      <c r="Y3">
+        <v>0.0106634353287518</v>
+      </c>
+      <c r="Z3">
+        <v>0.9067328870296478</v>
+      </c>
+      <c r="AA3">
+        <v>0.4752382338047028</v>
+      </c>
+      <c r="AB3">
+        <v>2.497881948947906</v>
+      </c>
+      <c r="AC3">
+        <v>0.2670746445655823</v>
+      </c>
+      <c r="AD3">
+        <v>6.378901720046997</v>
+      </c>
+      <c r="AE3">
+        <v>0.003805113054113463</v>
+      </c>
+      <c r="AF3">
+        <v>1.018238425254822</v>
+      </c>
+      <c r="AG3">
+        <v>0.04117863811552525</v>
+      </c>
+      <c r="AH3">
+        <v>0.007908772793598473</v>
+      </c>
+      <c r="AI3">
+        <v>0.02027369011193514</v>
+      </c>
+      <c r="AJ3">
+        <v>0.7602463662624359</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0.8748884499073029</v>
+      </c>
+      <c r="AM3">
+        <v>0.275365523993969</v>
+      </c>
+      <c r="AN3">
+        <v>0.1182434484362602</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AR3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AS3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AT3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AU3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AV3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AW3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AX3">
+        <v>0.007498935330659151</v>
+      </c>
+      <c r="AY3">
+        <v>0.001763016283803154</v>
+      </c>
+      <c r="AZ3">
+        <v>0.01401805272325873</v>
+      </c>
+      <c r="BA3">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="BB3">
+        <v>0.3986526280641556</v>
+      </c>
+      <c r="BC3">
+        <v>0.37135249376297</v>
+      </c>
+      <c r="BD3">
+        <v>0.5507510900497437</v>
+      </c>
+      <c r="BE3">
+        <v>0.4390258342027664</v>
+      </c>
+      <c r="BF3">
+        <v>0.4058538377285004</v>
+      </c>
+      <c r="BG3">
+        <v>0.5257790982723236</v>
+      </c>
+      <c r="BH3">
+        <v>0.06550494953989983</v>
+      </c>
+      <c r="BI3">
+        <v>0.06201773323118687</v>
+      </c>
+      <c r="BJ3">
+        <v>0.03719384572468698</v>
+      </c>
+      <c r="BK3">
+        <v>0.4734487682580948</v>
+      </c>
+      <c r="BL3">
+        <v>1.067552921085735e-05</v>
+      </c>
+      <c r="BM3">
+        <v>0.8496290743350983</v>
+      </c>
+      <c r="BN3">
+        <v>1.718674937478681e-06</v>
+      </c>
+      <c r="BO3">
+        <v>0.001024341712991372</v>
+      </c>
+      <c r="BP3">
+        <v>0.001947460782389498</v>
+      </c>
+      <c r="BQ3">
+        <v>0.0007701181242687483</v>
+      </c>
+      <c r="BR3">
+        <v>0.001683059465676706</v>
+      </c>
+      <c r="BS3">
+        <v>7.339349327040168e-05</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1.573202290661158e-08</v>
+      </c>
+      <c r="BV3">
+        <v>1.949962535885419e-08</v>
+      </c>
+      <c r="BW3">
+        <v>0.6414849460124969</v>
+      </c>
+      <c r="BX3">
+        <v>0.08563967840746045</v>
+      </c>
+      <c r="BY3">
+        <v>2.782630362241356e-09</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>3.059324289126503e-11</v>
+      </c>
+      <c r="CB3">
+        <v>5.537259778302939e-12</v>
+      </c>
+      <c r="CC3">
+        <v>1.399546133061617e-14</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CG3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CH3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CI3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CJ3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CK3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CL3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CM3">
+        <v>0.9925010800361633</v>
+      </c>
+      <c r="CN3">
+        <v>0.9982369840145111</v>
+      </c>
+      <c r="CO3">
+        <v>0.9859819412231445</v>
+      </c>
+      <c r="CP3">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CQ3">
+        <v>0.6013473868370056</v>
+      </c>
+      <c r="CR3">
+        <v>0.6286474913358688</v>
+      </c>
+      <c r="CS3">
+        <v>0.4492488875985146</v>
+      </c>
+      <c r="CT3">
+        <v>0.5609741508960724</v>
+      </c>
+      <c r="CU3">
+        <v>0.5941461622714996</v>
+      </c>
+      <c r="CV3">
+        <v>0.4742209017276764</v>
+      </c>
+      <c r="CW3">
+        <v>0.9344950318336487</v>
+      </c>
+      <c r="CX3">
+        <v>0.9379822909832001</v>
+      </c>
+      <c r="CY3">
+        <v>0.9628061354160309</v>
+      </c>
+      <c r="CZ3">
+        <v>0.5265512317419052</v>
+      </c>
+      <c r="DA3">
+        <v>0.9999893307685852</v>
+      </c>
+      <c r="DB3">
+        <v>0.1503709387034178</v>
+      </c>
+      <c r="DC3">
+        <v>0.9999982714653015</v>
+      </c>
+      <c r="DD3">
+        <v>0.9989756643772125</v>
+      </c>
+      <c r="DE3">
+        <v>0.9980525374412537</v>
+      </c>
+      <c r="DF3">
+        <v>0.999229907989502</v>
+      </c>
+      <c r="DG3">
+        <v>0.9983169436454773</v>
+      </c>
+      <c r="DH3">
+        <v>0.9999265968799591</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9999999701976776</v>
+      </c>
+      <c r="DK3">
+        <v>0.9999999701976776</v>
+      </c>
+      <c r="DL3">
+        <v>0.3585150800645351</v>
+      </c>
+      <c r="DM3">
+        <v>0.9143603444099426</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DP3">
+        <v>1</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0.3180302463598874</v>
+      </c>
+      <c r="EC3">
+        <v>0.0002398965991017217</v>
+      </c>
+      <c r="ED3">
+        <v>0.004958429850622221</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0.02170685262031247</v>
+      </c>
+      <c r="EG3">
+        <v>99.57794650636905</v>
+      </c>
+      <c r="EH3">
+        <v>0.05589086000603116</v>
+      </c>
+      <c r="EI3">
+        <v>0.00597774726342597</v>
+      </c>
+      <c r="EJ3">
+        <v>0.001178334077489296</v>
+      </c>
+      <c r="EK3">
+        <v>0.009831635734083079</v>
+      </c>
+      <c r="EL3">
+        <v>0.002046663190217261</v>
+      </c>
+      <c r="EM3">
+        <v>0.002179186596634448</v>
+      </c>
+      <c r="EN3">
+        <v>5.601537568626038e-06</v>
+      </c>
+      <c r="EO3">
+        <v>4.772080594922278e-06</v>
+      </c>
+      <c r="EP3">
+        <v>4.80930026010514e-12</v>
+      </c>
+      <c r="EQ3">
+        <v>3.474259641329801e-10</v>
+      </c>
+      <c r="ER3">
+        <v>1.051771503204796e-14</v>
+      </c>
+      <c r="ES3">
+        <v>8.239485763598803e-12</v>
+      </c>
+      <c r="ET3">
+        <v>1.435697956771345e-12</v>
+      </c>
+      <c r="EU3">
+        <v>2.823347399773176e-14</v>
+      </c>
+      <c r="EV3">
+        <v>3.618567743065271e-13</v>
+      </c>
+      <c r="EW3">
+        <v>4.866641466708037e-16</v>
+      </c>
+      <c r="EX3">
+        <v>1.263445756928916e-15</v>
+      </c>
+      <c r="EY3">
+        <v>1.070630803327616e-19</v>
+      </c>
+      <c r="EZ3">
+        <v>7.293863161810519e-21</v>
+      </c>
+      <c r="FA3">
+        <v>5.450971082236829e-20</v>
+      </c>
+      <c r="FB3">
+        <v>5.553227359230658e-21</v>
+      </c>
+      <c r="FC3">
+        <v>1.145570118997164e-22</v>
+      </c>
+      <c r="FD3">
+        <v>0</v>
+      </c>
+      <c r="FE3">
+        <v>2.524052975691476e-06</v>
+      </c>
+      <c r="FF3">
+        <v>5.33257121894729e-07</v>
+      </c>
+      <c r="FG3">
+        <v>2.100425788012009e-07</v>
+      </c>
+      <c r="FH3">
+        <v>0</v>
+      </c>
+      <c r="FI3">
+        <v>0</v>
+      </c>
+      <c r="FJ3">
+        <v>0</v>
+      </c>
+      <c r="FK3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FN3">
+        <v>0</v>
+      </c>
+      <c r="FO3">
+        <v>0</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>7.107258684452124e-10</v>
+      </c>
+      <c r="FR3">
+        <v>1.774543316901893e-12</v>
+      </c>
+      <c r="FS3">
+        <v>4.167993726285722e-10</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>2.319690500343695e-07</v>
+      </c>
+      <c r="FV3">
+        <v>0.01717511212537173</v>
+      </c>
+      <c r="FW3">
+        <v>0.0001046849537351347</v>
+      </c>
+      <c r="FX3">
+        <v>0.04056812644008005</v>
+      </c>
+      <c r="FY3">
+        <v>0.04220851622517072</v>
+      </c>
+      <c r="FZ3">
+        <v>5.692119628546358</v>
+      </c>
+      <c r="GA3">
+        <v>15.19839434775738</v>
+      </c>
+      <c r="GB3">
+        <v>32.56054857048593</v>
+      </c>
+      <c r="GC3">
+        <v>13.37197420115095</v>
+      </c>
+      <c r="GD3">
+        <v>0.08117798806005297</v>
+      </c>
+      <c r="GE3">
+        <v>0.02111960920162624</v>
+      </c>
+      <c r="GF3">
+        <v>0.1202090841960815</v>
+      </c>
+      <c r="GG3">
+        <v>0.02565351240389819</v>
+      </c>
+      <c r="GH3">
+        <v>2.181368634713731</v>
+      </c>
+      <c r="GI3">
+        <v>1.143302280161404</v>
+      </c>
+      <c r="GJ3">
+        <v>6.009268456669982</v>
+      </c>
+      <c r="GK3">
+        <v>0.6425136455468943</v>
+      </c>
+      <c r="GL3">
+        <v>15.34601461475061</v>
+      </c>
+      <c r="GM3">
+        <v>0.009154133909241875</v>
+      </c>
+      <c r="GN3">
+        <v>2.449622590383163</v>
+      </c>
+      <c r="GO3">
+        <v>0.09906532661420613</v>
+      </c>
+      <c r="GP3">
+        <v>0.01902649518707587</v>
+      </c>
+      <c r="GQ3">
+        <v>0.04877334036593205</v>
+      </c>
+      <c r="GR3">
+        <v>1.828959334928965</v>
+      </c>
+      <c r="GS3">
+        <v>0</v>
+      </c>
+      <c r="GT3">
+        <v>2.104755508180983</v>
+      </c>
+      <c r="GU3">
+        <v>0.6624586418540125</v>
+      </c>
+      <c r="GV3">
+        <v>0.2844633820888056</v>
+      </c>
+      <c r="GW3">
+        <v>0</v>
+      </c>
+      <c r="GX3">
+        <v>0</v>
+      </c>
+      <c r="GY3">
+        <v>0.8709293007850647</v>
+      </c>
+      <c r="GZ3">
+        <v>0.8728210926055908</v>
+      </c>
+      <c r="HA3">
+        <v>217.7536010742188</v>
+      </c>
+      <c r="HB3">
+        <v>25.4040699005127</v>
+      </c>
+      <c r="HC3">
+        <v>25.49666976928711</v>
+      </c>
+      <c r="HD3">
+        <v>181.05419921875</v>
+      </c>
+      <c r="HE3">
+        <v>225.7513122558594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:213">
+      <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.1891152784228325</v>
+      </c>
+      <c r="J4">
+        <v>0.0001426534508937038</v>
+      </c>
+      <c r="K4">
+        <v>0.002948508365079761</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.01290798000991344</v>
+      </c>
+      <c r="N4">
+        <v>59.22072601318359</v>
+      </c>
+      <c r="O4">
+        <v>0.03327876608818769</v>
+      </c>
+      <c r="P4">
+        <v>0.02041765674948692</v>
+      </c>
+      <c r="Q4">
+        <v>0.0182455712929368</v>
+      </c>
+      <c r="R4">
+        <v>2.371898531913757</v>
+      </c>
+      <c r="S4">
+        <v>6.318757057189941</v>
+      </c>
+      <c r="T4">
+        <v>13.53578948974609</v>
+      </c>
+      <c r="U4">
+        <v>5.558352589607239</v>
+      </c>
+      <c r="V4">
+        <v>0.03374621644616127</v>
+      </c>
+      <c r="W4">
+        <v>0.008778820745646954</v>
+      </c>
+      <c r="X4">
+        <v>0.0499674966558814</v>
+      </c>
+      <c r="Y4">
+        <v>0.0106634353287518</v>
+      </c>
+      <c r="Z4">
+        <v>0.9067328870296478</v>
+      </c>
+      <c r="AA4">
+        <v>0.4752382338047028</v>
+      </c>
+      <c r="AB4">
+        <v>2.497881948947906</v>
+      </c>
+      <c r="AC4">
+        <v>0.2670746445655823</v>
+      </c>
+      <c r="AD4">
+        <v>6.378901720046997</v>
+      </c>
+      <c r="AE4">
+        <v>0.003805113054113463</v>
+      </c>
+      <c r="AF4">
+        <v>1.018238425254822</v>
+      </c>
+      <c r="AG4">
+        <v>0.04117863811552525</v>
+      </c>
+      <c r="AH4">
+        <v>0.007908772793598473</v>
+      </c>
+      <c r="AI4">
+        <v>0.02027369011193514</v>
+      </c>
+      <c r="AJ4">
+        <v>0.7602463662624359</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0.8748884499073029</v>
+      </c>
+      <c r="AM4">
+        <v>0.275365523993969</v>
+      </c>
+      <c r="AN4">
+        <v>0.1182434484362602</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AR4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AS4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AT4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AU4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AV4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AW4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="AX4">
+        <v>0.007498935330659151</v>
+      </c>
+      <c r="AY4">
+        <v>0.001763016283803154</v>
+      </c>
+      <c r="AZ4">
+        <v>0.01401805272325873</v>
+      </c>
+      <c r="BA4">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="BB4">
+        <v>0.3986526280641556</v>
+      </c>
+      <c r="BC4">
+        <v>0.37135249376297</v>
+      </c>
+      <c r="BD4">
+        <v>0.5507510900497437</v>
+      </c>
+      <c r="BE4">
+        <v>0.4390258342027664</v>
+      </c>
+      <c r="BF4">
+        <v>0.4058538377285004</v>
+      </c>
+      <c r="BG4">
+        <v>0.5257790982723236</v>
+      </c>
+      <c r="BH4">
+        <v>0.06550494953989983</v>
+      </c>
+      <c r="BI4">
+        <v>0.06201773323118687</v>
+      </c>
+      <c r="BJ4">
+        <v>0.03719384572468698</v>
+      </c>
+      <c r="BK4">
+        <v>0.4734487682580948</v>
+      </c>
+      <c r="BL4">
+        <v>1.067552921085735e-05</v>
+      </c>
+      <c r="BM4">
+        <v>0.8496290743350983</v>
+      </c>
+      <c r="BN4">
+        <v>1.718674937478681e-06</v>
+      </c>
+      <c r="BO4">
+        <v>0.001024341712991372</v>
+      </c>
+      <c r="BP4">
+        <v>0.001947460782389498</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0007701181242687483</v>
+      </c>
+      <c r="BR4">
+        <v>0.001683059465676706</v>
+      </c>
+      <c r="BS4">
+        <v>7.339349327040168e-05</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1.573202290661158e-08</v>
+      </c>
+      <c r="BV4">
+        <v>1.949962535885419e-08</v>
+      </c>
+      <c r="BW4">
+        <v>0.6414849460124969</v>
+      </c>
+      <c r="BX4">
+        <v>0.08563967840746045</v>
+      </c>
+      <c r="BY4">
+        <v>2.782630362241356e-09</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>3.059324289126503e-11</v>
+      </c>
+      <c r="CB4">
+        <v>5.537259778302939e-12</v>
+      </c>
+      <c r="CC4">
+        <v>1.399546133061617e-14</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CG4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CH4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CI4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CJ4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CK4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CL4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CM4">
+        <v>0.9925010800361633</v>
+      </c>
+      <c r="CN4">
+        <v>0.9982369840145111</v>
+      </c>
+      <c r="CO4">
+        <v>0.9859819412231445</v>
+      </c>
+      <c r="CP4">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="CQ4">
+        <v>0.6013473868370056</v>
+      </c>
+      <c r="CR4">
+        <v>0.6286474913358688</v>
+      </c>
+      <c r="CS4">
+        <v>0.4492488875985146</v>
+      </c>
+      <c r="CT4">
+        <v>0.5609741508960724</v>
+      </c>
+      <c r="CU4">
+        <v>0.5941461622714996</v>
+      </c>
+      <c r="CV4">
+        <v>0.4742209017276764</v>
+      </c>
+      <c r="CW4">
+        <v>0.9344950318336487</v>
+      </c>
+      <c r="CX4">
+        <v>0.9379822909832001</v>
+      </c>
+      <c r="CY4">
+        <v>0.9628061354160309</v>
+      </c>
+      <c r="CZ4">
+        <v>0.5265512317419052</v>
+      </c>
+      <c r="DA4">
+        <v>0.9999893307685852</v>
+      </c>
+      <c r="DB4">
+        <v>0.1503709387034178</v>
+      </c>
+      <c r="DC4">
+        <v>0.9999982714653015</v>
+      </c>
+      <c r="DD4">
+        <v>0.9989756643772125</v>
+      </c>
+      <c r="DE4">
+        <v>0.9980525374412537</v>
+      </c>
+      <c r="DF4">
+        <v>0.999229907989502</v>
+      </c>
+      <c r="DG4">
+        <v>0.9983169436454773</v>
+      </c>
+      <c r="DH4">
+        <v>0.9999265968799591</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9999999701976776</v>
+      </c>
+      <c r="DK4">
+        <v>0.9999999701976776</v>
+      </c>
+      <c r="DL4">
+        <v>0.3585150800645351</v>
+      </c>
+      <c r="DM4">
+        <v>0.9143603444099426</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4">
+        <v>1</v>
+      </c>
+      <c r="DQ4">
+        <v>1</v>
+      </c>
+      <c r="DR4">
+        <v>1</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0.3180302463598874</v>
+      </c>
+      <c r="EC4">
+        <v>0.0002398965991017217</v>
+      </c>
+      <c r="ED4">
+        <v>0.004958429850622221</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0.02170685262031247</v>
+      </c>
+      <c r="EG4">
+        <v>99.57794650636905</v>
+      </c>
+      <c r="EH4">
+        <v>0.05589086000603116</v>
+      </c>
+      <c r="EI4">
+        <v>0.00597774726342597</v>
+      </c>
+      <c r="EJ4">
+        <v>0.001178334077489296</v>
+      </c>
+      <c r="EK4">
+        <v>0.009831635734083079</v>
+      </c>
+      <c r="EL4">
+        <v>0.002046663190217261</v>
+      </c>
+      <c r="EM4">
+        <v>0.002179186596634448</v>
+      </c>
+      <c r="EN4">
+        <v>5.601537568626038e-06</v>
+      </c>
+      <c r="EO4">
+        <v>4.772080594922278e-06</v>
+      </c>
+      <c r="EP4">
+        <v>4.80930026010514e-12</v>
+      </c>
+      <c r="EQ4">
+        <v>3.474259641329801e-10</v>
+      </c>
+      <c r="ER4">
+        <v>1.051771503204796e-14</v>
+      </c>
+      <c r="ES4">
+        <v>8.239485763598803e-12</v>
+      </c>
+      <c r="ET4">
+        <v>1.435697956771345e-12</v>
+      </c>
+      <c r="EU4">
+        <v>2.823347399773176e-14</v>
+      </c>
+      <c r="EV4">
+        <v>3.618567743065271e-13</v>
+      </c>
+      <c r="EW4">
+        <v>4.866641466708037e-16</v>
+      </c>
+      <c r="EX4">
+        <v>1.263445756928916e-15</v>
+      </c>
+      <c r="EY4">
+        <v>1.070630803327616e-19</v>
+      </c>
+      <c r="EZ4">
+        <v>7.293863161810519e-21</v>
+      </c>
+      <c r="FA4">
+        <v>5.450971082236829e-20</v>
+      </c>
+      <c r="FB4">
+        <v>5.553227359230658e-21</v>
+      </c>
+      <c r="FC4">
+        <v>1.145570118997164e-22</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>2.524052975691476e-06</v>
+      </c>
+      <c r="FF4">
+        <v>5.33257121894729e-07</v>
+      </c>
+      <c r="FG4">
+        <v>2.100425788012009e-07</v>
+      </c>
+      <c r="FH4">
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <v>0</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4">
+        <v>0</v>
+      </c>
+      <c r="FP4">
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <v>7.107258684452124e-10</v>
+      </c>
+      <c r="FR4">
+        <v>1.774543316901893e-12</v>
+      </c>
+      <c r="FS4">
+        <v>4.167993726285722e-10</v>
+      </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>2.319690500343695e-07</v>
+      </c>
+      <c r="FV4">
+        <v>0.01717511212537173</v>
+      </c>
+      <c r="FW4">
+        <v>0.0001046849537351347</v>
+      </c>
+      <c r="FX4">
+        <v>0.04056812644008005</v>
+      </c>
+      <c r="FY4">
+        <v>0.04220851622517072</v>
+      </c>
+      <c r="FZ4">
+        <v>5.692119628546358</v>
+      </c>
+      <c r="GA4">
+        <v>15.19839434775738</v>
+      </c>
+      <c r="GB4">
+        <v>32.56054857048593</v>
+      </c>
+      <c r="GC4">
+        <v>13.37197420115095</v>
+      </c>
+      <c r="GD4">
+        <v>0.08117798806005297</v>
+      </c>
+      <c r="GE4">
+        <v>0.02111960920162624</v>
+      </c>
+      <c r="GF4">
+        <v>0.1202090841960815</v>
+      </c>
+      <c r="GG4">
+        <v>0.02565351240389819</v>
+      </c>
+      <c r="GH4">
+        <v>2.181368634713731</v>
+      </c>
+      <c r="GI4">
+        <v>1.143302280161404</v>
+      </c>
+      <c r="GJ4">
+        <v>6.009268456669982</v>
+      </c>
+      <c r="GK4">
+        <v>0.6425136455468943</v>
+      </c>
+      <c r="GL4">
+        <v>15.34601461475061</v>
+      </c>
+      <c r="GM4">
+        <v>0.009154133909241875</v>
+      </c>
+      <c r="GN4">
+        <v>2.449622590383163</v>
+      </c>
+      <c r="GO4">
+        <v>0.09906532661420613</v>
+      </c>
+      <c r="GP4">
+        <v>0.01902649518707587</v>
+      </c>
+      <c r="GQ4">
+        <v>0.04877334036593205</v>
+      </c>
+      <c r="GR4">
+        <v>1.828959334928965</v>
+      </c>
+      <c r="GS4">
+        <v>0</v>
+      </c>
+      <c r="GT4">
+        <v>2.104755508180983</v>
+      </c>
+      <c r="GU4">
+        <v>0.6624586418540125</v>
+      </c>
+      <c r="GV4">
+        <v>0.2844633820888056</v>
+      </c>
+      <c r="GW4">
+        <v>0</v>
+      </c>
+      <c r="GX4">
+        <v>0</v>
+      </c>
+      <c r="GY4">
+        <v>0.8709293007850647</v>
+      </c>
+      <c r="GZ4">
+        <v>0.8728210926055908</v>
+      </c>
+      <c r="HA4">
+        <v>217.7536010742188</v>
+      </c>
+      <c r="HB4">
+        <v>25.4040699005127</v>
+      </c>
+      <c r="HC4">
+        <v>25.49666976928711</v>
+      </c>
+      <c r="HD4">
+        <v>181.05419921875</v>
+      </c>
+      <c r="HE4">
+        <v>225.7513122558594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
